--- a/bianyaqi.xlsx
+++ b/bianyaqi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/bianyaqi.xlsx
+++ b/bianyaqi.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>VIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +40,14 @@
   </si>
   <si>
     <t>ZIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -886,4 +896,630 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.5</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2.94</v>
+      </c>
+      <c r="B4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.8</v>
+      </c>
+      <c r="B5">
+        <v>43.2</v>
+      </c>
+      <c r="C5">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B6">
+        <v>54.4</v>
+      </c>
+      <c r="C6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="B7">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4.7</v>
+      </c>
+      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4.84</v>
+      </c>
+      <c r="B10">
+        <v>94.4</v>
+      </c>
+      <c r="C10">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>104</v>
+      </c>
+      <c r="C11">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5.2</v>
+      </c>
+      <c r="B12">
+        <v>115</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5.2</v>
+      </c>
+      <c r="B13">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5.4</v>
+      </c>
+      <c r="B14">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5.64</v>
+      </c>
+      <c r="B15">
+        <v>146</v>
+      </c>
+      <c r="C15">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5.9</v>
+      </c>
+      <c r="B16">
+        <v>168</v>
+      </c>
+      <c r="C16">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6.22</v>
+      </c>
+      <c r="B17">
+        <v>192</v>
+      </c>
+      <c r="C17">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6.56</v>
+      </c>
+      <c r="B18">
+        <v>222</v>
+      </c>
+      <c r="C18">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6.7</v>
+      </c>
+      <c r="B19">
+        <v>252</v>
+      </c>
+      <c r="C19">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6.38</v>
+      </c>
+      <c r="B20">
+        <v>274</v>
+      </c>
+      <c r="C20">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5.6</v>
+      </c>
+      <c r="B21">
+        <v>280</v>
+      </c>
+      <c r="C21">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4.5</v>
+      </c>
+      <c r="B22">
+        <v>264</v>
+      </c>
+      <c r="C22">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3.36</v>
+      </c>
+      <c r="B23">
+        <v>238</v>
+      </c>
+      <c r="C23">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="B24">
+        <v>206</v>
+      </c>
+      <c r="C24">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1.3</v>
+      </c>
+      <c r="B25">
+        <v>180</v>
+      </c>
+      <c r="C25">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.78</v>
+      </c>
+      <c r="B26">
+        <v>158</v>
+      </c>
+      <c r="C26">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.72</v>
+      </c>
+      <c r="B27">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.96</v>
+      </c>
+      <c r="B28">
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B29">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1.4</v>
+      </c>
+      <c r="B30">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1.56</v>
+      </c>
+      <c r="B31">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1.72</v>
+      </c>
+      <c r="B32">
+        <v>79.2</v>
+      </c>
+      <c r="C32">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3.12</v>
+      </c>
+      <c r="B33">
+        <v>25.6</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3.8</v>
+      </c>
+      <c r="B34">
+        <v>12.8</v>
+      </c>
+      <c r="C34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4.24</v>
+      </c>
+      <c r="B35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D35">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.56</v>
+      </c>
+      <c r="B2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B3">
+        <v>5.4</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2.8</v>
+      </c>
+      <c r="B4">
+        <v>7.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.4</v>
+      </c>
+      <c r="B5">
+        <v>9.4</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.88</v>
+      </c>
+      <c r="B6">
+        <v>12.2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="B7">
+        <v>15.6</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4.76</v>
+      </c>
+      <c r="B8">
+        <v>20.2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5.08</v>
+      </c>
+      <c r="B9">
+        <v>27.8</v>
+      </c>
+      <c r="C9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5.36</v>
+      </c>
+      <c r="B10">
+        <v>41.6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5.4</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5.16</v>
+      </c>
+      <c r="B12">
+        <v>65.2</v>
+      </c>
+      <c r="C12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B13">
+        <v>70.8</v>
+      </c>
+      <c r="C13">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B14">
+        <v>63.2</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5.12</v>
+      </c>
+      <c r="B15">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C15">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2.52</v>
+      </c>
+      <c r="B16">
+        <v>27.6</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5.8</v>
+      </c>
+      <c r="B17">
+        <v>20.8</v>
+      </c>
+      <c r="C17">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6.04</v>
+      </c>
+      <c r="B18">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C18">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>